--- a/config_8.3/activity_exchange_server.xlsx
+++ b/config_8.3/activity_exchange_server.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="372">
   <si>
     <t>id|</t>
   </si>
@@ -1634,12 +1634,6 @@
   </si>
   <si>
     <t>600,</t>
-  </si>
-  <si>
-    <t>lxjkh_024_jfphb_rank</t>
-  </si>
-  <si>
-    <t>prop_grade</t>
   </si>
   <si>
     <t>"obj_10_coupon",</t>
@@ -4854,10 +4848,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4876,7 +4870,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B363" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E390" sqref="E389:E390"/>
+      <selection pane="bottomRight" activeCell="F397" sqref="F397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14305,7 +14299,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:14">
       <c r="A369" s="11">
         <v>368</v>
       </c>
@@ -14331,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:14">
       <c r="A370" s="11">
         <v>369</v>
       </c>
@@ -14354,7 +14348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:14">
       <c r="A371" s="11">
         <v>370</v>
       </c>
@@ -14380,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:14">
       <c r="A372" s="11">
         <v>371</v>
       </c>
@@ -14406,7 +14400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:14">
       <c r="A373" s="11">
         <v>372</v>
       </c>
@@ -14432,7 +14426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:14">
       <c r="A374" s="11">
         <v>373</v>
       </c>
@@ -14458,7 +14452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:14">
       <c r="A375" s="11">
         <v>374</v>
       </c>
@@ -14484,7 +14478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:14">
       <c r="A376" s="11">
         <v>375</v>
       </c>
@@ -14507,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:14">
       <c r="A377" s="11">
         <v>376</v>
       </c>
@@ -14530,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:14">
       <c r="A378" s="11">
         <v>377</v>
       </c>
@@ -14553,7 +14547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:14">
       <c r="A379" s="11">
         <v>378</v>
       </c>
@@ -14579,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:14">
       <c r="A380" s="11">
         <v>379</v>
       </c>
@@ -14602,7 +14596,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:14">
       <c r="A381" s="11">
         <v>380</v>
       </c>
@@ -14628,7 +14622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:14">
       <c r="A382" s="11">
         <v>381</v>
       </c>
@@ -14651,7 +14645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:14">
       <c r="A383" s="11">
         <v>382</v>
       </c>
@@ -14674,7 +14668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:15" s="57" customFormat="1">
+    <row r="384" spans="1:14" s="57" customFormat="1">
       <c r="A384" s="57">
         <v>383</v>
       </c>
@@ -14699,17 +14693,9 @@
       <c r="J384" s="57">
         <v>1</v>
       </c>
-      <c r="M384" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N384" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O384" s="57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="385" spans="1:15" s="57" customFormat="1">
+      <c r="N384" s="58"/>
+    </row>
+    <row r="385" spans="1:14" s="57" customFormat="1">
       <c r="A385" s="57">
         <v>384</v>
       </c>
@@ -14723,7 +14709,7 @@
         <v>317</v>
       </c>
       <c r="F385" s="58" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G385" s="58" t="s">
         <v>224</v>
@@ -14731,17 +14717,9 @@
       <c r="H385" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="M385" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N385" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O385" s="57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="386" spans="1:15" s="57" customFormat="1">
+      <c r="N385" s="58"/>
+    </row>
+    <row r="386" spans="1:14" s="57" customFormat="1">
       <c r="A386" s="57">
         <v>385</v>
       </c>
@@ -14766,17 +14744,9 @@
       <c r="J386" s="57">
         <v>1</v>
       </c>
-      <c r="M386" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N386" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O386" s="57">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" s="57" customFormat="1">
+      <c r="N386" s="58"/>
+    </row>
+    <row r="387" spans="1:14" s="57" customFormat="1">
       <c r="A387" s="57">
         <v>386</v>
       </c>
@@ -14801,17 +14771,9 @@
       <c r="J387" s="57">
         <v>3</v>
       </c>
-      <c r="M387" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N387" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O387" s="57">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" s="57" customFormat="1">
+      <c r="N387" s="58"/>
+    </row>
+    <row r="388" spans="1:14" s="57" customFormat="1">
       <c r="A388" s="57">
         <v>387</v>
       </c>
@@ -14836,17 +14798,9 @@
       <c r="J388" s="57">
         <v>1</v>
       </c>
-      <c r="M388" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N388" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O388" s="57">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15" s="57" customFormat="1">
+      <c r="N388" s="58"/>
+    </row>
+    <row r="389" spans="1:14" s="57" customFormat="1">
       <c r="A389" s="57">
         <v>388</v>
       </c>
@@ -14860,7 +14814,7 @@
         <v>317</v>
       </c>
       <c r="E389" s="57" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F389" s="58"/>
       <c r="G389" s="58"/>
@@ -14870,17 +14824,9 @@
       <c r="I389" s="57">
         <v>1</v>
       </c>
-      <c r="M389" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N389" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O389" s="57">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="390" spans="1:15" s="57" customFormat="1">
+      <c r="N389" s="58"/>
+    </row>
+    <row r="390" spans="1:14" s="57" customFormat="1">
       <c r="A390" s="57">
         <v>389</v>
       </c>
@@ -14905,17 +14851,9 @@
       <c r="J390" s="57">
         <v>3</v>
       </c>
-      <c r="M390" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N390" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O390" s="57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15" s="57" customFormat="1">
+      <c r="N390" s="58"/>
+    </row>
+    <row r="391" spans="1:14" s="57" customFormat="1">
       <c r="A391" s="57">
         <v>390</v>
       </c>
@@ -14929,27 +14867,19 @@
         <v>317</v>
       </c>
       <c r="E391" s="59" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F391" s="58"/>
       <c r="G391" s="58"/>
       <c r="H391" s="57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I391" s="57">
         <v>1</v>
       </c>
-      <c r="M391" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N391" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O391" s="57">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="392" spans="1:15" s="57" customFormat="1">
+      <c r="N391" s="58"/>
+    </row>
+    <row r="392" spans="1:14" s="57" customFormat="1">
       <c r="A392" s="57">
         <v>391</v>
       </c>
@@ -14971,17 +14901,9 @@
       <c r="H392" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="M392" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N392" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O392" s="57">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" s="57" customFormat="1">
+      <c r="N392" s="58"/>
+    </row>
+    <row r="393" spans="1:14" s="57" customFormat="1">
       <c r="A393" s="57">
         <v>392</v>
       </c>
@@ -14995,25 +14917,17 @@
         <v>317</v>
       </c>
       <c r="E393" s="59" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F393" s="58"/>
       <c r="G393" s="58"/>
       <c r="H393" s="57" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I393" s="57">
         <v>1</v>
       </c>
-      <c r="M393" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="N393" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="O393" s="57">
-        <v>3000</v>
-      </c>
+      <c r="N393" s="58"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">
@@ -15041,10 +14955,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -15052,7 +14966,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -15060,7 +14974,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15143,16 +15057,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15163,7 +15077,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -15177,7 +15091,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -15191,7 +15105,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -15205,7 +15119,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -15219,7 +15133,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -15233,7 +15147,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -15247,7 +15161,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -15261,7 +15175,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -15275,7 +15189,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -15289,7 +15203,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -15303,7 +15217,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -15317,7 +15231,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>

--- a/config_8.3/activity_exchange_server.xlsx
+++ b/config_8.3/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2365,9 +2365,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4238,7 +4238,7 @@
         <v>57</v>
       </c>
       <c r="L58" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4299,7 +4299,7 @@
         <v>59</v>
       </c>
       <c r="L60" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4866,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B363" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
